--- a/biology/Microbiologie/Bionettoyage/Bionettoyage.xlsx
+++ b/biology/Microbiologie/Bionettoyage/Bionettoyage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme bionettoyage désigne l'ensemble des opérations réalisées, notamment en milieu hospitalier, afin d'assainir un environnement. Le bionettoyage permet de réduire, voire de supprimer, les micro-organismes présents dans un milieu, afin d'éviter des contaminations ou des infections par des maladies nosocomiales.
 </t>
@@ -513,15 +525,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">En trois temps ou séparées
-Utilisation de deux produits séparés, un détergent et un désinfectant :
+          <t>En trois temps ou séparées</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Utilisation de deux produits séparés, un détergent et un désinfectant :
 le nettoyage permet d'éliminer les salissures et les micro-organismes (biofilm) à l'aide d'un produit détergent. Il élimine une grande partie des micro-organismes présents sur la surface ;
 le rinçage élimine les salissures, micro-organismes, mis en suspension par le détergent, et les traces de produit détergent ;
-la désinfection s'effectue par contact ou par pulvérisation d'un désinfectant contenant des agents biocides capables de détruire les micro-organismes.
-En un seul temps
-Certains produits détergents et désinfectants, notés dD pour détergent et Désinfectant, permettent de réaliser le nettoyage et la désinfection simultanément.
-D'autres produits détergents, détartrants et désinfectants permettent de réaliser le nettoyage, le détartrage et la désinfection simultanément.
-</t>
+la désinfection s'effectue par contact ou par pulvérisation d'un désinfectant contenant des agents biocides capables de détruire les micro-organismes.</t>
         </is>
       </c>
     </row>
@@ -546,10 +559,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Étapes du bionettoyage</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>En un seul temps</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains produits détergents et désinfectants, notés dD pour détergent et Désinfectant, permettent de réaliser le nettoyage et la désinfection simultanément.
+D'autres produits détergents, détartrants et désinfectants permettent de réaliser le nettoyage, le détartrage et la désinfection simultanément.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bionettoyage</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bionettoyage</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Critères à respecter</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L'organisation et l'économie : le protocole de bionettoyage, ordre précis des actes à effectuer avec le matériel et les produits nécessaires, est généralement établi par le responsable en hygiène de l'établissement. Il doit être respecté scrupuleusement. On travaille toujours selon les mêmes principes du plus propre au plus sale.
 L'hygiène : le lavage des mains avant et après le bionettoyage limite les contaminations manuportées. La tenue professionnelle est de rigueur, le port des gants à usage unique est nécessaire. Le matériel utilisé est toujours propre et désinfecté, les lavettes (chiffonnettes) à usage unique ou lavées à 90 °C (ou avec une lessive désinfectante). Les bandeaux de lavage aussi et de préférence en microfibre.
@@ -561,31 +614,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Bionettoyage</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Microbiologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bionettoyage</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Contrôles microbiologiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le milieu hospitalier, le milieu de la restauration et de la blanchisserie, les contrôles microbiologiques des surfaces peuvent permettre de créer un indicateur qualité.
 Ce type de contrôle est le plus souvent réalisé par un biohygiéniste, ou par une personne désignée dans le service prélevé.
